--- a/data/data_tpa_paper/ap_comp.xlsx
+++ b/data/data_tpa_paper/ap_comp.xlsx
@@ -222,7 +222,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11216,11 +11216,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9212690"/>
-        <c:axId val="44099596"/>
+        <c:axId val="68908364"/>
+        <c:axId val="65590483"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9212690"/>
+        <c:axId val="68908364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -11294,12 +11294,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44099596"/>
+        <c:crossAx val="65590483"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44099596"/>
+        <c:axId val="65590483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11381,7 +11382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9212690"/>
+        <c:crossAx val="68908364"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11423,15 +11424,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>759240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>753120</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>755280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11439,8 +11440,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5875560" y="38160"/>
-        <a:ext cx="9517320" cy="5555520"/>
+        <a:off x="6502680" y="506160"/>
+        <a:ext cx="6244560" cy="3357000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11461,17 +11462,16 @@
   <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/data_tpa_paper/ap_comp.xlsx
+++ b/data/data_tpa_paper/ap_comp.xlsx
@@ -25,25 +25,25 @@
     <t xml:space="preserve">Time</t>
   </si>
   <si>
-    <t xml:space="preserve">No Ic_tpa</t>
+    <t xml:space="preserve">No IC_tPA</t>
   </si>
   <si>
     <t xml:space="preserve">no AP treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">AP @ 0s</t>
+    <t xml:space="preserve">AP at 0s</t>
   </si>
   <si>
-    <t xml:space="preserve">AP @ 1000s</t>
+    <t xml:space="preserve">AP at 1000s</t>
   </si>
   <si>
-    <t xml:space="preserve">AP @ 2000s</t>
+    <t xml:space="preserve">AP at 2000s</t>
   </si>
   <si>
-    <t xml:space="preserve">AP @ 3000s</t>
+    <t xml:space="preserve">AP at 3000s</t>
   </si>
   <si>
-    <t xml:space="preserve">AP @ 4000s</t>
+    <t xml:space="preserve">AP at 4000s</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -279,7 +279,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No Ic_tpa</c:v>
+                  <c:v>No IC_tPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3405,7 +3405,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AP @ 0s</c:v>
+                  <c:v>AP at 0s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4969,7 +4969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AP @ 1000s</c:v>
+                  <c:v>AP at 1000s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6533,7 +6533,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AP @ 2000s</c:v>
+                  <c:v>AP at 2000s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8097,7 +8097,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AP @ 3000s</c:v>
+                  <c:v>AP at 3000s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9661,7 +9661,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AP @ 4000s</c:v>
+                  <c:v>AP at 4000s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11216,11 +11216,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68908364"/>
-        <c:axId val="65590483"/>
+        <c:axId val="96422756"/>
+        <c:axId val="30058333"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68908364"/>
+        <c:axId val="96422756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -11294,13 +11294,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65590483"/>
+        <c:crossAx val="30058333"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65590483"/>
+        <c:axId val="30058333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11382,7 +11382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68908364"/>
+        <c:crossAx val="96422756"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11423,16 +11423,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>759240</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>755280</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11440,8 +11440,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6502680" y="506160"/>
-        <a:ext cx="6244560" cy="3357000"/>
+        <a:off x="6269040" y="506520"/>
+        <a:ext cx="5985000" cy="3184560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11462,16 +11462,17 @@
   <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
